--- a/biology/Zoologie/Avicularia_avicularia/Avicularia_avicularia.xlsx
+++ b/biology/Zoologie/Avicularia_avicularia/Avicularia_avicularia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avicularia avicularia est une espèce d'araignées mygalomorphes de la famille des Theraphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avicularia avicularia est une espèce d'araignées mygalomorphes de la famille des Theraphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Venezuela, à Trinité-et-Tobago, au Guyana, au Suriname, en Guyane, au Brésil, en Bolivie et au Pérou[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Venezuela, à Trinité-et-Tobago, au Guyana, au Suriname, en Guyane, au Brésil, en Bolivie et au Pérou.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle décrit par Fukushima et Bertani en 2017 mesure 17,23 mm de long sur 16,81 mm et l'abdomen 19,83 mm de long sur 13,01 mm et la carapace de la femelle mesure 19,39 mm de long sur 17,68 mm et l'abdomen 26,37 mm de long sur 13,39 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle décrit par Fukushima et Bertani en 2017 mesure 17,23 mm de long sur 16,81 mm et l'abdomen 19,83 mm de long sur 13,01 mm et la carapace de la femelle mesure 19,39 mm de long sur 17,68 mm et l'abdomen 26,37 mm de long sur 13,39 mm.
 Son corps est noire avec des chaussettes orange à l'extrémité de ces pattes.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>En captivité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en terrariophilie.
 </t>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).</t>
         </is>
